--- a/W2/empirical_analysis.xlsx
+++ b/W2/empirical_analysis.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/n9912517_qut_edu_au/Documents/GitHub/algorithms_complexity_practice/W2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liut26\Dropbox\Projects\algorithms_complexity_practice\W2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{B67500C1-8DCF-47BA-BA6A-48EC3E08A484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B79559B-ABA1-43C3-9C7F-251F8241D8EB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4759F3E-10AB-474D-A46E-39CA4C11208F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{322E8B98-01CE-430F-9B54-27A9DE0B7CEB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{322E8B98-01CE-430F-9B54-27A9DE0B7CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -114,7 +113,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -157,7 +156,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15493418284546492"/>
+          <c:y val="1.9918475739036701E-2"/>
+          <c:w val="0.80079100799422975"/>
+          <c:h val="0.78136620955018887"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -354,7 +363,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>250000</c:v>
+                  <c:v>249851</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1001164</c:v>
@@ -1208,9 +1217,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1248,7 +1257,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1354,7 +1363,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1496,7 +1505,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1528,7 +1537,7 @@
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>250000</v>
+        <v>249851</v>
       </c>
     </row>
     <row r="3" spans="1:2">
